--- a/biology/Zoologie/Closterocoris/Closterocoris.xlsx
+++ b/biology/Zoologie/Closterocoris/Closterocoris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Closterocoris est un genre d'insectes hémiptères hétéroptères (punaises) de la famille des Miridae, de la sous-famille des Mirinae et de la tribu des Herdoniini. 
 </t>
@@ -511,10 +523,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il y a deux espèces décrites dont l'une est connue à l'état de fossile:
-†Closterocoris elegans, trouvée dans les dépôts de la formation de Florissant au Colorado, datant de l'Éocène[2],
+†Closterocoris elegans, trouvée dans les dépôts de la formation de Florissant au Colorado, datant de l'Éocène,
 Closterocoris amoenus, espèce actuelle, trouvée le long de la côte Pacifique de la Californie et de la Basse Californie, au Mexique.</t>
         </is>
       </c>
